--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormT3.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormT3.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omnex\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Form T3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,9 +22,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>PERFORMANCE-BASED CONTRACT FOR THE LONG-TERM MANAGEMENT AND MAINTENANCE OF STATE ROADS IN SARAWAK</t>
-  </si>
-  <si>
-    <t>PLANNED MONTHLY CUMULATIVE WORK QUANTITY FOR (DIVISION / RMU)</t>
   </si>
   <si>
     <t>REVISION:</t>
@@ -442,6 +434,9 @@
   <si>
     <t>Sub-total</t>
   </si>
+  <si>
+    <t>PLANNED MONTHLY CUMULATIVE WORK QUANTITY FOR (MRI/ RMU BATU NIAH)</t>
+  </si>
 </sst>
 </file>
 
@@ -451,7 +446,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="d\ mmmm\ yyyy"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1057,17 +1052,8 @@
   </cellStyleXfs>
   <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1085,36 +1071,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1126,9 +1085,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1139,83 +1095,90 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1232,24 +1195,56 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1314,7 +1309,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1349,7 +1344,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1526,7 +1521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1537,7 +1532,7 @@
   <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1549,1209 +1544,1217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="2"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
     </row>
     <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="10" t="s">
+      <c r="Q4" s="7"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="58"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="12"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="B5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="63"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="59"/>
+      <c r="B6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="17"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20" t="s">
+      <c r="E6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="F6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="G6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="H6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="I6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="J6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="K6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="L6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="M6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="N6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="O6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="P6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="22" t="s">
+      <c r="Q6" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="R6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="R6" s="23" t="s">
+      <c r="S6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="24" t="s">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="49" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="25" t="s">
+      <c r="B7" s="13">
+        <v>1011</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="26">
-        <v>1011</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28" t="s">
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="17"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="42"/>
+      <c r="B8" s="18">
+        <v>1012</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="30"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32">
-        <v>1012</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34" t="s">
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="21"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="42"/>
+      <c r="B9" s="18">
+        <v>3013</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="35"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32">
-        <v>3013</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34" t="s">
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="23"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="42"/>
+      <c r="B10" s="18">
+        <v>3014</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="37"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32">
-        <v>3014</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34" t="s">
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="23"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="42"/>
+      <c r="B11" s="18">
+        <v>3015</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="37"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32">
-        <v>3015</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34" t="s">
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="23"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="42"/>
+      <c r="B12" s="18">
+        <v>3016</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="37"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32">
-        <v>3016</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34" t="s">
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="23"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" s="42"/>
+      <c r="B13" s="18">
+        <v>3017</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="37"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32">
-        <v>3017</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34" t="s">
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="23"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" s="42"/>
+      <c r="B14" s="18">
+        <v>3018</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="37"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32">
-        <v>3018</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34" t="s">
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="23"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" s="42"/>
+      <c r="B15" s="24">
+        <v>3019</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="37"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="31"/>
-      <c r="B15" s="38">
-        <v>3019</v>
-      </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40" t="s">
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="41"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="65"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="25" t="s">
+      <c r="B16" s="29">
+        <v>1021</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="43">
-        <v>1021</v>
-      </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="28" t="s">
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="21"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" s="42"/>
+      <c r="B17" s="18">
+        <v>3022</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="35"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32">
-        <v>3022</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34" t="s">
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="23"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" s="42"/>
+      <c r="B18" s="18">
+        <v>3023</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="37"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32">
-        <v>3023</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34" t="s">
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="23"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" s="50"/>
+      <c r="B19" s="24">
+        <v>3024</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="37"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="45"/>
-      <c r="B19" s="38">
-        <v>3024</v>
-      </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40" t="s">
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="28"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="42"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="46" t="s">
+      <c r="B20" s="13">
+        <v>1041</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="26">
-        <v>1041</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28" t="s">
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="21"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21" s="52"/>
+      <c r="B21" s="18">
+        <v>1042</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="35"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="47"/>
-      <c r="B21" s="32">
-        <v>1042</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34" t="s">
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="23"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A22" s="52"/>
+      <c r="B22" s="18">
+        <v>1043</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="37"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="47"/>
-      <c r="B22" s="32">
-        <v>1043</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34" t="s">
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="23"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A23" s="52"/>
+      <c r="B23" s="18">
+        <v>4044</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="37"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="47"/>
-      <c r="B23" s="32">
-        <v>4044</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="34" t="s">
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="23"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A24" s="52"/>
+      <c r="B24" s="24">
+        <v>4045</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="37"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="47"/>
-      <c r="B24" s="38">
-        <v>4045</v>
-      </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="40" t="s">
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="28"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A25" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="42"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="46" t="s">
+      <c r="B25" s="29">
+        <v>1031</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="43">
-        <v>1031</v>
-      </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="48" t="s">
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="17"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A26" s="52"/>
+      <c r="B26" s="18">
+        <v>1032</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="30"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="47"/>
-      <c r="B26" s="32">
-        <v>1032</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34" t="s">
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="23"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A27" s="52"/>
+      <c r="B27" s="18">
+        <v>4033</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="37"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="47"/>
-      <c r="B27" s="32">
-        <v>4033</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34" t="s">
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="23"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A28" s="52"/>
+      <c r="B28" s="24">
+        <v>4034</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="37"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="47"/>
-      <c r="B28" s="38">
-        <v>4034</v>
-      </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40" t="s">
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="28"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A29" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="42"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="46" t="s">
+      <c r="B29" s="13">
+        <v>1051</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="26">
-        <v>1051</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="48" t="s">
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="21"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A30" s="52"/>
+      <c r="B30" s="24">
+        <v>6052</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="35"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="47"/>
-      <c r="B30" s="38">
-        <v>6052</v>
-      </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="40" t="s">
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="28"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A31" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="61"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="42"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="46" t="s">
+      <c r="B31" s="13">
+        <v>1061</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="26">
-        <v>1061</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28" t="s">
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="21"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A32" s="52"/>
+      <c r="B32" s="18">
+        <v>6062</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="35"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="47"/>
-      <c r="B32" s="32">
-        <v>6062</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34" t="s">
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="23"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A33" s="53"/>
+      <c r="B33" s="24">
+        <v>6063</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="37"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="50"/>
-      <c r="B33" s="38">
-        <v>6063</v>
-      </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="40" t="s">
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="28"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A34" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="42"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="31" t="s">
+      <c r="B34" s="29">
+        <v>1071</v>
+      </c>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="43">
-        <v>1071</v>
-      </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="48" t="s">
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="21"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A35" s="42"/>
+      <c r="B35" s="18">
+        <v>1072</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="35"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32">
-        <v>1072</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="34" t="s">
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="23"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A36" s="42"/>
+      <c r="B36" s="18">
+        <v>1073</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="61"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="37"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="31"/>
-      <c r="B36" s="32">
-        <v>1073</v>
-      </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="34" t="s">
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="23"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A37" s="42"/>
+      <c r="B37" s="18">
+        <v>7074</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="61"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="61"/>
-      <c r="Q36" s="61"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="37"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32">
-        <v>7074</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="34" t="s">
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="23"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A38" s="42"/>
+      <c r="B38" s="24">
+        <v>7075</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="61"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="37"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="31"/>
-      <c r="B38" s="38">
-        <v>7075</v>
-      </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="40" t="s">
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="28"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A39" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="61"/>
-      <c r="Q38" s="61"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="42"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="51" t="s">
+      <c r="B39" s="13">
+        <v>9091</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="26">
-        <v>9091</v>
-      </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="28" t="s">
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="21"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A40" s="44"/>
+      <c r="B40" s="18">
+        <v>9092</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61"/>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="35"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" s="52"/>
-      <c r="B40" s="32">
-        <v>9092</v>
-      </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="34" t="s">
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="23"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A41" s="44"/>
+      <c r="B41" s="18">
+        <v>9093</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="61"/>
-      <c r="L40" s="61"/>
-      <c r="M40" s="61"/>
-      <c r="N40" s="61"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="61"/>
-      <c r="Q40" s="61"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="37"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="52"/>
-      <c r="B41" s="32">
-        <v>9093</v>
-      </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="34" t="s">
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="23"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A42" s="44"/>
+      <c r="B42" s="18">
+        <v>9194</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="61"/>
-      <c r="N41" s="61"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="61"/>
-      <c r="Q41" s="61"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="37"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="52"/>
-      <c r="B42" s="32">
-        <v>9194</v>
-      </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="34" t="s">
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="23"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A43" s="44"/>
+      <c r="B43" s="18">
+        <v>9195</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="61"/>
-      <c r="M42" s="61"/>
-      <c r="N42" s="61"/>
-      <c r="O42" s="61"/>
-      <c r="P42" s="61"/>
-      <c r="Q42" s="61"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="37"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="52"/>
-      <c r="B43" s="32">
-        <v>9195</v>
-      </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="34" t="s">
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="34"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A44" s="45"/>
+      <c r="B44" s="24">
+        <v>9500</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="61"/>
-      <c r="L43" s="61"/>
-      <c r="M43" s="61"/>
-      <c r="N43" s="61"/>
-      <c r="O43" s="61"/>
-      <c r="P43" s="61"/>
-      <c r="Q43" s="61"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="54"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="55"/>
-      <c r="B44" s="38">
-        <v>9500</v>
-      </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="40" t="s">
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="28"/>
+    </row>
+    <row r="45" spans="1:19" s="35" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="61"/>
-      <c r="M44" s="61"/>
-      <c r="N44" s="61"/>
-      <c r="O44" s="61"/>
-      <c r="P44" s="61"/>
-      <c r="Q44" s="61"/>
-      <c r="R44" s="41"/>
-      <c r="S44" s="42"/>
-    </row>
-    <row r="45" spans="1:19" s="59" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="63">
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="39">
         <f>SUM(E7:E44)</f>
         <v>0</v>
       </c>
-      <c r="F45" s="63">
-        <f t="shared" ref="F45:R45" si="0">SUM(F7:F44)</f>
+      <c r="F45" s="39">
+        <f t="shared" ref="F45:Q45" si="0">SUM(F7:F44)</f>
         <v>0</v>
       </c>
-      <c r="G45" s="63">
+      <c r="G45" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H45" s="64">
+      <c r="H45" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="64">
+      <c r="I45" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J45" s="64">
+      <c r="J45" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K45" s="64">
+      <c r="K45" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L45" s="64">
+      <c r="L45" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M45" s="64">
+      <c r="M45" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N45" s="64">
+      <c r="N45" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O45" s="64">
+      <c r="O45" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P45" s="64">
+      <c r="P45" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="64">
+      <c r="Q45" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R45" s="61"/>
-      <c r="S45" s="62"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:S5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="A45:D45"/>
@@ -2761,14 +2764,6 @@
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:S5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormT3.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormT3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>PERFORMANCE-BASED CONTRACT FOR THE LONG-TERM MANAGEMENT AND MAINTENANCE OF STATE ROADS IN SARAWAK</t>
   </si>
@@ -430,9 +430,6 @@
   </si>
   <si>
     <t>SUB-TOTAL:</t>
-  </si>
-  <si>
-    <t>Sub-total</t>
   </si>
   <si>
     <t>PLANNED MONTHLY CUMULATIVE WORK QUANTITY FOR (MRI/ RMU BATU NIAH)</t>
@@ -583,7 +580,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -696,15 +693,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -766,21 +754,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -829,19 +802,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -851,21 +811,6 @@
       </top>
       <bottom style="hair">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,21 +860,6 @@
       </right>
       <top style="hair">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1018,26 +948,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1050,7 +982,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1083,37 +1015,37 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="15" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1131,56 +1063,62 @@
     <xf numFmtId="166" fontId="15" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="12" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="12" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1195,55 +1133,25 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1521,7 +1429,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1532,7 +1440,7 @@
   <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1544,69 +1452,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
+      <c r="A3" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
     </row>
     <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
@@ -1632,42 +1540,41 @@
         <v>2</v>
       </c>
       <c r="Q4" s="7"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="58"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="56"/>
     </row>
     <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="63"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="59"/>
-      <c r="B6" s="64" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="65"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1707,1054 +1614,1002 @@
       <c r="P6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="36" t="s">
-        <v>69</v>
+      <c r="Q6" s="57" t="s">
+        <v>20</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>1011</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="17"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="15"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="42"/>
-      <c r="B8" s="18">
+      <c r="A8" s="44"/>
+      <c r="B8" s="16">
         <v>1012</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="21"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="15"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="42"/>
-      <c r="B9" s="18">
+      <c r="A9" s="44"/>
+      <c r="B9" s="16">
         <v>3013</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="23"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="19"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="42"/>
-      <c r="B10" s="18">
+      <c r="A10" s="44"/>
+      <c r="B10" s="16">
         <v>3014</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="23"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="19"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="42"/>
-      <c r="B11" s="18">
+      <c r="A11" s="44"/>
+      <c r="B11" s="16">
         <v>3015</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="23"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="19"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="42"/>
-      <c r="B12" s="18">
+      <c r="A12" s="44"/>
+      <c r="B12" s="16">
         <v>3016</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="23"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="19"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="42"/>
-      <c r="B13" s="18">
+      <c r="A13" s="44"/>
+      <c r="B13" s="16">
         <v>3017</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="23"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="19"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="42"/>
-      <c r="B14" s="18">
+      <c r="A14" s="44"/>
+      <c r="B14" s="16">
         <v>3018</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="23"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="19"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="42"/>
-      <c r="B15" s="24">
+      <c r="A15" s="44"/>
+      <c r="B15" s="20">
         <v>3019</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="41"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="24">
         <v>1021</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="21"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="42"/>
-      <c r="B17" s="18">
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="15"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="44"/>
+      <c r="B17" s="16">
         <v>3022</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="23"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="42"/>
-      <c r="B18" s="18">
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="19"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" s="44"/>
+      <c r="B18" s="16">
         <v>3023</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="23"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="50"/>
-      <c r="B19" s="24">
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="19"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19" s="52"/>
+      <c r="B19" s="20">
         <v>3024</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="28"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="51" t="s">
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="23"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>1041</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="21"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="52"/>
-      <c r="B21" s="18">
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="15"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" s="54"/>
+      <c r="B21" s="16">
         <v>1042</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="23"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="52"/>
-      <c r="B22" s="18">
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="19"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" s="54"/>
+      <c r="B22" s="16">
         <v>1043</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="23"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="52"/>
-      <c r="B23" s="18">
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="19"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23" s="54"/>
+      <c r="B23" s="16">
         <v>4044</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="23"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="52"/>
-      <c r="B24" s="24">
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="19"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24" s="54"/>
+      <c r="B24" s="20">
         <v>4045</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26" t="s">
+      <c r="C24" s="21"/>
+      <c r="D24" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="28"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="51" t="s">
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="23"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="24">
         <v>1031</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31" t="s">
+      <c r="C25" s="25"/>
+      <c r="D25" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="17"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="52"/>
-      <c r="B26" s="18">
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="27"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A26" s="54"/>
+      <c r="B26" s="16">
         <v>1032</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="23"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="52"/>
-      <c r="B27" s="18">
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="19"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A27" s="54"/>
+      <c r="B27" s="16">
         <v>4033</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="23"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="52"/>
-      <c r="B28" s="24">
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="19"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28" s="54"/>
+      <c r="B28" s="20">
         <v>4034</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26" t="s">
+      <c r="C28" s="21"/>
+      <c r="D28" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="28"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="51" t="s">
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="23"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A29" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <v>1051</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="31" t="s">
+      <c r="C29" s="13"/>
+      <c r="D29" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="21"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="52"/>
-      <c r="B30" s="24">
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="15"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30" s="54"/>
+      <c r="B30" s="20">
         <v>6052</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26" t="s">
+      <c r="C30" s="21"/>
+      <c r="D30" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="28"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="51" t="s">
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="23"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A31" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <v>1061</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="21"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="52"/>
-      <c r="B32" s="18">
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="15"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A32" s="54"/>
+      <c r="B32" s="16">
         <v>6062</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20" t="s">
+      <c r="C32" s="17"/>
+      <c r="D32" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="23"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="19"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="53"/>
-      <c r="B33" s="24">
+      <c r="A33" s="55"/>
+      <c r="B33" s="20">
         <v>6063</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26" t="s">
+      <c r="C33" s="21"/>
+      <c r="D33" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="28"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="23"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="24">
         <v>1071</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31" t="s">
+      <c r="C34" s="25"/>
+      <c r="D34" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="21"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="15"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="42"/>
-      <c r="B35" s="18">
+      <c r="A35" s="44"/>
+      <c r="B35" s="16">
         <v>1072</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20" t="s">
+      <c r="C35" s="17"/>
+      <c r="D35" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="23"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="19"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="42"/>
-      <c r="B36" s="18">
+      <c r="A36" s="44"/>
+      <c r="B36" s="16">
         <v>1073</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20" t="s">
+      <c r="C36" s="17"/>
+      <c r="D36" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="23"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="19"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="42"/>
-      <c r="B37" s="18">
+      <c r="A37" s="44"/>
+      <c r="B37" s="16">
         <v>7074</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20" t="s">
+      <c r="C37" s="17"/>
+      <c r="D37" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="23"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="19"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="42"/>
-      <c r="B38" s="24">
+      <c r="A38" s="44"/>
+      <c r="B38" s="20">
         <v>7075</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="26" t="s">
+      <c r="C38" s="21"/>
+      <c r="D38" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="28"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="23"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="12">
         <v>9091</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15" t="s">
+      <c r="C39" s="13"/>
+      <c r="D39" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="21"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="15"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" s="44"/>
-      <c r="B40" s="18">
+      <c r="A40" s="46"/>
+      <c r="B40" s="16">
         <v>9092</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="20" t="s">
+      <c r="C40" s="17"/>
+      <c r="D40" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="23"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="19"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="44"/>
-      <c r="B41" s="18">
+      <c r="A41" s="46"/>
+      <c r="B41" s="16">
         <v>9093</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="20" t="s">
+      <c r="C41" s="17"/>
+      <c r="D41" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="23"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="19"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="44"/>
-      <c r="B42" s="18">
+      <c r="A42" s="46"/>
+      <c r="B42" s="16">
         <v>9194</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="20" t="s">
+      <c r="C42" s="17"/>
+      <c r="D42" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="23"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="19"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="44"/>
-      <c r="B43" s="18">
+      <c r="A43" s="46"/>
+      <c r="B43" s="16">
         <v>9195</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="20" t="s">
+      <c r="C43" s="17"/>
+      <c r="D43" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="33"/>
-      <c r="S43" s="34"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="28"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="45"/>
-      <c r="B44" s="24">
+      <c r="A44" s="47"/>
+      <c r="B44" s="20">
         <v>9500</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="26" t="s">
+      <c r="C44" s="21"/>
+      <c r="D44" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="28"/>
-    </row>
-    <row r="45" spans="1:19" s="35" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="46" t="s">
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="23"/>
+    </row>
+    <row r="45" spans="1:19" s="29" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="39">
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="31">
         <f>SUM(E7:E44)</f>
         <v>0</v>
       </c>
-      <c r="F45" s="39">
+      <c r="F45" s="31">
         <f t="shared" ref="F45:Q45" si="0">SUM(F7:F44)</f>
         <v>0</v>
       </c>
-      <c r="G45" s="39">
+      <c r="G45" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H45" s="40">
+      <c r="H45" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="40">
+      <c r="I45" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J45" s="40">
+      <c r="J45" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K45" s="40">
+      <c r="K45" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L45" s="40">
+      <c r="L45" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M45" s="40">
+      <c r="M45" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N45" s="40">
+      <c r="N45" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O45" s="40">
+      <c r="O45" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P45" s="40">
+      <c r="P45" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R45" s="37"/>
-      <c r="S45" s="38"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="30"/>
+      <c r="S45"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:S5"/>
-    <mergeCell ref="B6:C6"/>
+  <mergeCells count="16">
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="A45:D45"/>
@@ -2764,6 +2619,13 @@
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E5:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormT3.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormT3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>PERFORMANCE-BASED CONTRACT FOR THE LONG-TERM MANAGEMENT AND MAINTENANCE OF STATE ROADS IN SARAWAK</t>
   </si>
@@ -434,6 +434,12 @@
   <si>
     <t>PLANNED MONTHLY CUMULATIVE WORK QUANTITY FOR (MRI/ RMU BATU NIAH)</t>
   </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Information brought forward from Page 2 in tabular and cumulative form. No signature required for this page.</t>
+  </si>
 </sst>
 </file>
 
@@ -445,7 +451,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,6 +565,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -982,7 +1004,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1079,34 +1101,10 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1148,11 +1146,39 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1429,7 +1455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1437,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+      <selection activeCell="A3" sqref="A3:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1452,69 +1478,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
     </row>
     <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
     </row>
     <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
@@ -1541,40 +1567,40 @@
       </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="33"/>
-      <c r="S4" s="56"/>
+      <c r="S4" s="34"/>
     </row>
     <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39" t="s">
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="41"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="57"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="37"/>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="43"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1614,7 +1640,7 @@
       <c r="P6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="57" t="s">
+      <c r="Q6" s="35" t="s">
         <v>20</v>
       </c>
       <c r="R6" s="11" t="s">
@@ -1622,7 +1648,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="43" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="12">
@@ -1648,7 +1674,7 @@
       <c r="R7" s="15"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="44"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="16">
         <v>1012</v>
       </c>
@@ -1672,7 +1698,7 @@
       <c r="R8" s="15"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="44"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="16">
         <v>3013</v>
       </c>
@@ -1696,7 +1722,7 @@
       <c r="R9" s="19"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="44"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="16">
         <v>3014</v>
       </c>
@@ -1720,7 +1746,7 @@
       <c r="R10" s="19"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="44"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="16">
         <v>3015</v>
       </c>
@@ -1744,7 +1770,7 @@
       <c r="R11" s="19"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="44"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="16">
         <v>3016</v>
       </c>
@@ -1768,7 +1794,7 @@
       <c r="R12" s="19"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="44"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="16">
         <v>3017</v>
       </c>
@@ -1792,7 +1818,7 @@
       <c r="R13" s="19"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="44"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="16">
         <v>3018</v>
       </c>
@@ -1816,7 +1842,7 @@
       <c r="R14" s="19"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="44"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="20">
         <v>3019</v>
       </c>
@@ -1840,7 +1866,7 @@
       <c r="R15" s="23"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="43" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="24">
@@ -1866,7 +1892,7 @@
       <c r="R16" s="15"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="44"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="16">
         <v>3022</v>
       </c>
@@ -1890,7 +1916,7 @@
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="16">
         <v>3023</v>
       </c>
@@ -1914,7 +1940,7 @@
       <c r="R18" s="19"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="52"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="20">
         <v>3024</v>
       </c>
@@ -1938,7 +1964,7 @@
       <c r="R19" s="23"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="45" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="12">
@@ -1964,7 +1990,7 @@
       <c r="R20" s="15"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" s="54"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="16">
         <v>1042</v>
       </c>
@@ -1988,7 +2014,7 @@
       <c r="R21" s="19"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" s="54"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="16">
         <v>1043</v>
       </c>
@@ -2012,7 +2038,7 @@
       <c r="R22" s="19"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" s="54"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="16">
         <v>4044</v>
       </c>
@@ -2036,7 +2062,7 @@
       <c r="R23" s="19"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="54"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="20">
         <v>4045</v>
       </c>
@@ -2060,7 +2086,7 @@
       <c r="R24" s="23"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B25" s="24">
@@ -2086,7 +2112,7 @@
       <c r="R25" s="27"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" s="54"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="16">
         <v>1032</v>
       </c>
@@ -2110,7 +2136,7 @@
       <c r="R26" s="19"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" s="54"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="16">
         <v>4033</v>
       </c>
@@ -2134,7 +2160,7 @@
       <c r="R27" s="19"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28" s="54"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="20">
         <v>4034</v>
       </c>
@@ -2158,7 +2184,7 @@
       <c r="R28" s="23"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="45" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="12">
@@ -2184,7 +2210,7 @@
       <c r="R29" s="15"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A30" s="54"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="20">
         <v>6052</v>
       </c>
@@ -2208,7 +2234,7 @@
       <c r="R30" s="23"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="45" t="s">
         <v>51</v>
       </c>
       <c r="B31" s="12">
@@ -2234,7 +2260,7 @@
       <c r="R31" s="15"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A32" s="54"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="16">
         <v>6062</v>
       </c>
@@ -2258,7 +2284,7 @@
       <c r="R32" s="19"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="55"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="20">
         <v>6063</v>
       </c>
@@ -2282,7 +2308,7 @@
       <c r="R33" s="23"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="36" t="s">
         <v>55</v>
       </c>
       <c r="B34" s="24">
@@ -2308,7 +2334,7 @@
       <c r="R34" s="15"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="44"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="16">
         <v>1072</v>
       </c>
@@ -2332,7 +2358,7 @@
       <c r="R35" s="19"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="44"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="16">
         <v>1073</v>
       </c>
@@ -2356,7 +2382,7 @@
       <c r="R36" s="19"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="44"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="16">
         <v>7074</v>
       </c>
@@ -2380,7 +2406,7 @@
       <c r="R37" s="19"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="44"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="20">
         <v>7075</v>
       </c>
@@ -2404,7 +2430,7 @@
       <c r="R38" s="23"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="37" t="s">
         <v>61</v>
       </c>
       <c r="B39" s="12">
@@ -2430,7 +2456,7 @@
       <c r="R39" s="15"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" s="46"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="16">
         <v>9092</v>
       </c>
@@ -2454,7 +2480,7 @@
       <c r="R40" s="19"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="46"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="16">
         <v>9093</v>
       </c>
@@ -2478,7 +2504,7 @@
       <c r="R41" s="19"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="46"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="16">
         <v>9194</v>
       </c>
@@ -2502,7 +2528,7 @@
       <c r="R42" s="19"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="46"/>
+      <c r="A43" s="38"/>
       <c r="B43" s="16">
         <v>9195</v>
       </c>
@@ -2526,7 +2552,7 @@
       <c r="R43" s="28"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="47"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="20">
         <v>9500</v>
       </c>
@@ -2550,18 +2576,18 @@
       <c r="R44" s="23"/>
     </row>
     <row r="45" spans="1:19" s="29" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="48" t="s">
+      <c r="A45" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="50"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="42"/>
       <c r="E45" s="31">
         <f>SUM(E7:E44)</f>
         <v>0</v>
       </c>
       <c r="F45" s="31">
-        <f t="shared" ref="F45:Q45" si="0">SUM(F7:F44)</f>
+        <f t="shared" ref="F45:P45" si="0">SUM(F7:F44)</f>
         <v>0</v>
       </c>
       <c r="G45" s="31">
@@ -2608,8 +2634,34 @@
       <c r="R45" s="30"/>
       <c r="S45"/>
     </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A46" s="58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A47" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E5:R5"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="A45:D45"/>
@@ -2619,14 +2671,8 @@
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E5:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>